--- a/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Tyler_Townsend/Charles_Henry_Tyler_Townsend.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Tyler_Townsend/Charles_Henry_Tyler_Townsend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henry Tyler Townsend est un entomologiste américain, né le 5 décembre 1863 à Oberlin en Ohio et mort le 17 mars 1944 à Itaquaquecetuba près de São Paulo.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Nathan Haskin Townsend et d’Helen Jeannette née Tyler. Il commence ses études à l’école supérieure du Michigan et comme des études de médecine en 1887 au Columbia College de Caroline du Sud tout en travaillant pour l’entomologiste Charles Valentine Riley (1843-1895) comme assistant. Il se marie avec Caroline W. Hess le 10 septembre 1889 dont il aura trois enfants.
 Il est professeur de zoologie, d’entomologie et de physiologie à l’école d’agriculture du Nouveau-Mexique à Las Cruces de 1891 à 1893. En 1893 et pour une année, il échange sa fonction avec celle de Theodore Dru Alison Cockerell (1866-1948) et il devient le conservateur du Muséum de la Jamaïque à Kingston. Il travaille comme entomologiste pour le compte du ministère de l’agriculture américaine de 1894 à 1898.
